--- a/Interna/Modulverlauf.xlsx
+++ b/Interna/Modulverlauf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/fopra/Interna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D200CE08-8FB6-0D46-89DA-EF6FAD137925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE05032-1A68-6941-BF3D-7AF6C8F79A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -139,9 +139,6 @@
     <t>Vertiefung - Versuchspläne</t>
   </si>
   <si>
-    <t>ChatGPT</t>
-  </si>
-  <si>
     <t>Online-Studien</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Hypothesen</t>
+  </si>
+  <si>
+    <t>Themawahl</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -639,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -653,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -664,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -689,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -703,7 +703,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -717,7 +717,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -728,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>

--- a/Interna/Modulverlauf.xlsx
+++ b/Interna/Modulverlauf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/fopra/Interna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE05032-1A68-6941-BF3D-7AF6C8F79A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B445AE-B6F0-0E48-ABC4-F84DF0060468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -157,10 +157,10 @@
     <t>Datenmodellierung</t>
   </si>
   <si>
-    <t>Hypothesen</t>
-  </si>
-  <si>
     <t>Themawahl</t>
+  </si>
+  <si>
+    <t>Schreiben</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
